--- a/question/management/commands/songs.xlsx
+++ b/question/management/commands/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapospectre/Projects/Personal/Riddle/question/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394DF84-0374-1946-B81E-58BDDB0C80B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26B5D6-1F20-8046-8750-389AAF7D4A3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="378">
   <si>
     <t>id</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>错误歌手名</t>
-  </si>
-  <si>
-    <t>错误歌曲名</t>
   </si>
   <si>
     <t xml:space="preserve">每一首歌曲只有一行，顺序按歌手名排序，数量较多时，插入方便，可以不重不漏
@@ -1569,8 +1566,8 @@
   <dimension ref="A1:AD507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1580,7 +1577,7 @@
     <col min="4" max="4" width="35.1640625"/>
     <col min="5" max="5" width="11.1640625"/>
     <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="15.33203125"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="69"/>
     <col min="9" max="28" width="14"/>
     <col min="29" max="1025" width="9.5"/>
@@ -1606,10 +1603,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1637,24 +1634,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>343</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1683,26 +1682,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1731,26 +1730,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1779,24 +1778,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1825,26 +1826,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1873,24 +1874,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1919,24 +1922,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1965,24 +1970,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2011,24 +2018,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2057,24 +2066,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2103,24 +2114,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2149,24 +2162,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>346</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2195,24 +2210,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>347</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2241,24 +2258,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2287,24 +2306,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4">
         <v>3</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2333,24 +2354,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2379,26 +2402,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2427,26 +2450,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="5">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2475,24 +2498,26 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2521,26 +2546,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="5">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2569,24 +2594,26 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2615,24 +2642,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4">
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2661,24 +2690,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2707,24 +2738,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="4">
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2753,24 +2786,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4">
         <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>351</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2799,24 +2834,26 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2845,26 +2882,26 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2893,26 +2930,26 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="5">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2941,26 +2978,26 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="5">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2989,24 +3026,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3035,24 +3074,26 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3081,24 +3122,26 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3127,24 +3170,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3173,24 +3218,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3219,24 +3266,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3265,26 +3314,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="5">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3313,26 +3362,26 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3361,26 +3410,26 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="5">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3409,26 +3458,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="5">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3457,24 +3506,26 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3503,24 +3554,26 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4">
         <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3549,26 +3602,26 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="5">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3597,24 +3650,26 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3643,24 +3698,26 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="4">
         <v>3</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3689,24 +3746,26 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3735,24 +3794,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="4">
         <v>3</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3781,24 +3842,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="4">
         <v>3</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>354</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3827,26 +3890,26 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G49" s="5">
-        <v>30</v>
+        <v>355</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3875,26 +3938,26 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="5">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3923,26 +3986,26 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G51" s="5">
-        <v>31</v>
+        <v>356</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3971,24 +4034,26 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4017,24 +4082,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4063,24 +4130,26 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="4">
         <v>3</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4109,24 +4178,26 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4155,24 +4226,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4201,24 +4274,26 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4247,24 +4322,26 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G58" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4293,24 +4370,26 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="4">
         <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4339,24 +4418,26 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4385,24 +4466,26 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>358</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4431,26 +4514,26 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G62" s="5">
-        <v>26</v>
+        <v>359</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4479,26 +4562,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G63" s="5">
-        <v>32</v>
+        <v>136</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4527,24 +4610,26 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4573,24 +4658,26 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="4">
         <v>3</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -4619,24 +4706,26 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4">
         <v>3</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -4665,24 +4754,26 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="4">
         <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -4711,24 +4802,26 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68" s="4">
         <v>3</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -4757,24 +4850,26 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E69" s="4">
         <v>3</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -4803,24 +4898,26 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" s="4">
         <v>2</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4849,24 +4946,26 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="4">
         <v>3</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4895,24 +4994,26 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G72" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4941,24 +5042,26 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4987,24 +5090,26 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -5033,26 +5138,26 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G75" s="5">
-        <v>7</v>
+        <v>362</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -5081,24 +5186,26 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E76" s="4">
         <v>2</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G76" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -5127,26 +5234,26 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="5">
-        <v>23</v>
+        <v>168</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -5175,26 +5282,26 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G78" s="5">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -5223,26 +5330,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G79" s="5">
-        <v>33</v>
+        <v>177</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -5271,26 +5378,26 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G80" s="5">
-        <v>16</v>
+        <v>179</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -5319,26 +5426,26 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G81" s="5">
-        <v>34</v>
+        <v>172</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -5367,26 +5474,26 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G82" s="5">
-        <v>36</v>
+        <v>174</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -5415,24 +5522,26 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E83" s="4">
         <v>2</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -5461,24 +5570,26 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E84" s="4">
         <v>3</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G84" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -5507,26 +5618,26 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G85" s="5">
-        <v>10</v>
+        <v>190</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -5555,24 +5666,26 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E86" s="4">
         <v>3</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G86" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -5601,24 +5714,26 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E87" s="4">
         <v>2</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -5647,26 +5762,26 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G88" s="5">
-        <v>9</v>
+        <v>275</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -5695,24 +5810,26 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E89" s="4">
         <v>3</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -5741,24 +5858,26 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="4">
         <v>2</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -5787,26 +5906,26 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G91" s="5">
-        <v>8</v>
+        <v>276</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -5835,24 +5954,26 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E92" s="4">
         <v>3</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -5881,24 +6002,26 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E93" s="4">
         <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G93" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5927,24 +6050,26 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E94" s="4">
         <v>2</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5973,24 +6098,26 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95" s="4">
         <v>3</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -6019,24 +6146,26 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" s="4">
         <v>3</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G96" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -6065,26 +6194,26 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G97" s="5">
-        <v>15</v>
+        <v>217</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -6113,24 +6242,26 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E98" s="4">
         <v>2</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -6159,24 +6290,26 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E99" s="4">
         <v>2</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -6205,24 +6338,26 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E100" s="4">
         <v>2</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G100" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -6251,24 +6386,26 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="4">
         <v>2</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G101" s="4"/>
+        <v>367</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -6297,24 +6434,26 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="4">
         <v>3</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G102" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -6343,24 +6482,26 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E103" s="4">
         <v>2</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -6389,24 +6530,26 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E104" s="4">
         <v>2</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -6435,24 +6578,26 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G105" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -6481,24 +6626,26 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" s="4">
         <v>3</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -6527,24 +6674,26 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G107" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -6573,24 +6722,26 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="E108" s="4">
         <v>2</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G108" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -6619,24 +6770,26 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E109" s="4">
         <v>3</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G109" s="4"/>
+        <v>369</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -6665,24 +6818,26 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E110" s="4">
         <v>3</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G110" s="4"/>
+        <v>370</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -6711,26 +6866,26 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="E111" s="4">
         <v>1</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G111" s="5">
-        <v>17</v>
+        <v>371</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -6759,26 +6914,26 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E112" s="4">
         <v>1</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" s="5">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -6807,26 +6962,26 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E113" s="4">
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G113" s="5">
-        <v>25</v>
+        <v>280</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -6855,24 +7010,26 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E114" s="4">
         <v>2</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G114" s="4"/>
+        <v>372</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -6901,26 +7058,26 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E115" s="4">
         <v>1</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G115" s="5">
-        <v>11</v>
+        <v>281</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -6949,24 +7106,26 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116" s="4">
         <v>3</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G116" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -6995,24 +7154,26 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E117" s="4">
         <v>3</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G117" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -7041,24 +7202,26 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E118" s="4">
         <v>3</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -7087,24 +7250,26 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="E119" s="4">
         <v>2</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G119" s="4"/>
+        <v>373</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -7133,24 +7298,26 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="4">
         <v>2</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G120" s="4"/>
+        <v>374</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7179,24 +7346,26 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="E121" s="4">
         <v>2</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G121" s="4"/>
+        <v>375</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -7225,26 +7394,26 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="E122" s="4">
         <v>1</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G122" s="5">
-        <v>35</v>
+        <v>376</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -7273,26 +7442,26 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="E123" s="4">
         <v>1</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G123" s="5">
-        <v>24</v>
+        <v>343</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
@@ -19630,37 +19799,37 @@
     <row r="1" spans="1:26" ht="16">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -19679,21 +19848,21 @@
     </row>
     <row r="2" spans="1:26" ht="16">
       <c r="A2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -19717,31 +19886,31 @@
     </row>
     <row r="3" spans="1:26" ht="16">
       <c r="A3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -19761,18 +19930,18 @@
     </row>
     <row r="4" spans="1:26" ht="28.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -19797,21 +19966,21 @@
     </row>
     <row r="5" spans="1:26" ht="32">
       <c r="A5" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -19833,34 +20002,34 @@
     </row>
     <row r="6" spans="1:26" ht="16">
       <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19879,32 +20048,32 @@
     </row>
     <row r="7" spans="1:26" ht="32">
       <c r="A7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19923,32 +20092,32 @@
     </row>
     <row r="8" spans="1:26" ht="32">
       <c r="A8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19967,10 +20136,10 @@
     </row>
     <row r="9" spans="1:26" ht="16">
       <c r="A9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -19978,14 +20147,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -20005,18 +20174,18 @@
     </row>
     <row r="10" spans="1:26" ht="16">
       <c r="A10" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -20067,7 +20236,7 @@
     <row r="1" spans="1:26" ht="16">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -20099,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -20131,7 +20300,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -20163,7 +20332,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -20195,7 +20364,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -20227,7 +20396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -20259,7 +20428,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/question/management/commands/songs.xlsx
+++ b/question/management/commands/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapospectre/Projects/Personal/Riddle/question/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26B5D6-1F20-8046-8750-389AAF7D4A3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBDEFD-C545-F341-B45A-3CD37275C409}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -1177,6 +1177,13 @@
   </si>
   <si>
     <t>蓝蓝的夜蓝蓝的梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误歌曲名</t>
+    <rPh sb="0" eb="10">
+      <t>qu'z</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1603,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>

--- a/question/management/commands/songs.xlsx
+++ b/question/management/commands/songs.xlsx
@@ -4952,23 +4952,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.86320754716981"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.74056603773585"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.2075471698113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6037735849057"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.5990566037736"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24056603773585"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61320754716981"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3443396226415"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0943396226415"/>
-    <col collapsed="false" hidden="false" max="32" min="13" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.11320754716981"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.86792452830189"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.3301886792453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2264150943396"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.3443396226415"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.49056603773585"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.98584905660377"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.0943396226415"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8443396226415"/>
+    <col collapsed="false" hidden="false" max="32" min="13" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45137,14 +45137,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0990566037736"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6037735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7216981132075"/>
-    <col collapsed="false" hidden="false" max="16" min="6" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.99528301886792"/>
-    <col collapsed="false" hidden="false" max="31" min="18" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7264150943396"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1037735849057"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4716981132075"/>
+    <col collapsed="false" hidden="false" max="16" min="6" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.11792452830189"/>
+    <col collapsed="false" hidden="false" max="31" min="18" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59804,11 +59804,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3537735849057"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9764150943396"/>
     <col collapsed="false" hidden="true" max="5" min="2" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8443396226415"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7169811320755"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60310,10 +60310,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.61792452830189"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3160377358491"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.86792452830189"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.061320754717"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
